--- a/excel/3mo/two_line_alerts_3mo_backup.xlsx
+++ b/excel/3mo/two_line_alerts_3mo_backup.xlsx
@@ -16,14 +16,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +429,296 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>stockname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>alert_date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>rowNumber</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>date1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>row1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>value1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>date2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>row2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>value2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>buyORsell</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>window_size</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percentage_value</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>two_line_count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>41395</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2" t="n">
+        <v>138.8699951171875</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>40391</v>
+      </c>
+      <c r="H2" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2" t="n">
+        <v>140</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1027277166193182</v>
+      </c>
+      <c r="L2" t="n">
+        <v>137.0208962180398</v>
+      </c>
+      <c r="M2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="C3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>41913</v>
+      </c>
+      <c r="E3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F3" t="n">
+        <v>230.9499969482422</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H3" t="n">
+        <v>61</v>
+      </c>
+      <c r="I3" t="n">
+        <v>231.4499969482422</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="L3" t="n">
+        <v>228.9083302815755</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C4" t="n">
+        <v>84</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="E4" t="n">
+        <v>71</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="H4" t="n">
+        <v>73</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>40725</v>
+      </c>
+      <c r="C5" t="n">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>39630</v>
+      </c>
+      <c r="E5" t="n">
+        <v>49</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel/3mo/two_line_alerts_3mo_backup.xlsx
+++ b/excel/3mo/two_line_alerts_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +718,159 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>42491</v>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>41306</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WELENT.NS</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>42583</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="E7" t="n">
+        <v>35</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.900000095367432</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>41579</v>
+      </c>
+      <c r="H7" t="n">
+        <v>36</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.900000095367432</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.900000095367432</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C8" t="n">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="H8" t="n">
+        <v>33</v>
+      </c>
+      <c r="I8" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/3mo/two_line_alerts_3mo_backup.xlsx
+++ b/excel/3mo/two_line_alerts_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,6 +667,363 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>41395</v>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" t="n">
+        <v>138.8699951171875</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>40391</v>
+      </c>
+      <c r="H5" t="n">
+        <v>29</v>
+      </c>
+      <c r="I5" t="n">
+        <v>140</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1027277166193182</v>
+      </c>
+      <c r="L5" t="n">
+        <v>137.0208962180398</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="C6" t="n">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>41913</v>
+      </c>
+      <c r="E6" t="n">
+        <v>49</v>
+      </c>
+      <c r="F6" t="n">
+        <v>230.9499969482422</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H6" t="n">
+        <v>61</v>
+      </c>
+      <c r="I6" t="n">
+        <v>231.4499969482422</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="L6" t="n">
+        <v>228.9083302815755</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C7" t="n">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="E7" t="n">
+        <v>71</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="H7" t="n">
+        <v>73</v>
+      </c>
+      <c r="I7" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>40725</v>
+      </c>
+      <c r="C8" t="n">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>39630</v>
+      </c>
+      <c r="E8" t="n">
+        <v>49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="H8" t="n">
+        <v>50</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>42491</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>41306</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I9" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C10" t="n">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F10" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="H10" t="n">
+        <v>33</v>
+      </c>
+      <c r="I10" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WELENT.NS</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>42583</v>
+      </c>
+      <c r="C11" t="n">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="E11" t="n">
+        <v>35</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.900000095367432</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>41579</v>
+      </c>
+      <c r="H11" t="n">
+        <v>36</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.900000095367432</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7.900000095367432</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/3mo/two_line_alerts_3mo_backup.xlsx
+++ b/excel/3mo/two_line_alerts_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1024,6 +1024,210 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="C12" t="n">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>40969</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="n">
+        <v>39.55476760864258</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="H12" t="n">
+        <v>38</v>
+      </c>
+      <c r="I12" t="n">
+        <v>39.67536163330078</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0.00669966803656684</v>
+      </c>
+      <c r="L12" t="n">
+        <v>39.42077424791124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AUROPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>39630</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>39173</v>
+      </c>
+      <c r="E13" t="n">
+        <v>45</v>
+      </c>
+      <c r="F13" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>39264</v>
+      </c>
+      <c r="H13" t="n">
+        <v>46</v>
+      </c>
+      <c r="I13" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ACC.NS</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C14" t="n">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E14" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1774.650024414062</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>43556</v>
+      </c>
+      <c r="H14" t="n">
+        <v>67</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1769.050048828125</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.3294103285845588</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1791.12054084329</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AUROPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="C15" t="n">
+        <v>87</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>42278</v>
+      </c>
+      <c r="E15" t="n">
+        <v>79</v>
+      </c>
+      <c r="F15" t="n">
+        <v>891.5</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>42644</v>
+      </c>
+      <c r="H15" t="n">
+        <v>83</v>
+      </c>
+      <c r="I15" t="n">
+        <v>895</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="L15" t="n">
+        <v>822.375</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/3mo/two_line_alerts_3mo_backup.xlsx
+++ b/excel/3mo/two_line_alerts_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1789,6 +1789,57 @@
         <v>2</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>39539</v>
+      </c>
+      <c r="C27" t="n">
+        <v>49</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>39083</v>
+      </c>
+      <c r="E27" t="n">
+        <v>44</v>
+      </c>
+      <c r="F27" t="n">
+        <v>108.7567291259766</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>39173</v>
+      </c>
+      <c r="H27" t="n">
+        <v>45</v>
+      </c>
+      <c r="I27" t="n">
+        <v>108.7567291259766</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>108.7567291259766</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/3mo/two_line_alerts_3mo_backup.xlsx
+++ b/excel/3mo/two_line_alerts_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1840,6 +1840,312 @@
         <v>2</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="C28" t="n">
+        <v>42</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>40969</v>
+      </c>
+      <c r="E28" t="n">
+        <v>20</v>
+      </c>
+      <c r="F28" t="n">
+        <v>39.55476760864258</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="H28" t="n">
+        <v>38</v>
+      </c>
+      <c r="I28" t="n">
+        <v>39.67536163330078</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0.00669966803656684</v>
+      </c>
+      <c r="L28" t="n">
+        <v>39.42077424791124</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PEL.NS</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>37803</v>
+      </c>
+      <c r="C29" t="n">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="E29" t="n">
+        <v>22</v>
+      </c>
+      <c r="F29" t="n">
+        <v>21.93608474731445</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>37438</v>
+      </c>
+      <c r="H29" t="n">
+        <v>26</v>
+      </c>
+      <c r="I29" t="n">
+        <v>21.79438591003418</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.03542470932006836</v>
+      </c>
+      <c r="L29" t="n">
+        <v>22.71542835235596</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AUROPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>39630</v>
+      </c>
+      <c r="C30" t="n">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>39173</v>
+      </c>
+      <c r="E30" t="n">
+        <v>45</v>
+      </c>
+      <c r="F30" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>39264</v>
+      </c>
+      <c r="H30" t="n">
+        <v>46</v>
+      </c>
+      <c r="I30" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ACC.NS</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C31" t="n">
+        <v>71</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E31" t="n">
+        <v>50</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1774.650024414062</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>43556</v>
+      </c>
+      <c r="H31" t="n">
+        <v>67</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1769.050048828125</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.3294103285845588</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1791.12054084329</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AUROPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="C32" t="n">
+        <v>87</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>42278</v>
+      </c>
+      <c r="E32" t="n">
+        <v>79</v>
+      </c>
+      <c r="F32" t="n">
+        <v>891.5</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>42644</v>
+      </c>
+      <c r="H32" t="n">
+        <v>83</v>
+      </c>
+      <c r="I32" t="n">
+        <v>895</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="L32" t="n">
+        <v>822.375</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PEL.NS</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="C33" t="n">
+        <v>107</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="E33" t="n">
+        <v>85</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1741.661987304688</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="H33" t="n">
+        <v>103</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1751.69140625</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0.55718994140625</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1694.300842285156</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/3mo/two_line_alerts_3mo_backup.xlsx
+++ b/excel/3mo/two_line_alerts_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2146,6 +2146,1587 @@
         <v>2</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PETRONET.NS</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>39783</v>
+      </c>
+      <c r="C34" t="n">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>38777</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>61</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>39417</v>
+      </c>
+      <c r="H34" t="n">
+        <v>15</v>
+      </c>
+      <c r="I34" t="n">
+        <v>61</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>61</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BAJAJCON.NS</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>43405</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="E35" t="n">
+        <v>20</v>
+      </c>
+      <c r="F35" t="n">
+        <v>522</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="H35" t="n">
+        <v>29</v>
+      </c>
+      <c r="I35" t="n">
+        <v>525</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L35" t="n">
+        <v>515.3333333333334</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TATAINVEST.NS</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>36434</v>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>35339</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>63.26666641235352</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>36069</v>
+      </c>
+      <c r="H36" t="n">
+        <v>11</v>
+      </c>
+      <c r="I36" t="n">
+        <v>63.33333206176758</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0.008333206176757812</v>
+      </c>
+      <c r="L36" t="n">
+        <v>63.24166679382324</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>INDHOTEL.NS</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C37" t="n">
+        <v>22</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>38991</v>
+      </c>
+      <c r="E37" t="n">
+        <v>17</v>
+      </c>
+      <c r="F37" t="n">
+        <v>148.6471862792969</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>39083</v>
+      </c>
+      <c r="H37" t="n">
+        <v>18</v>
+      </c>
+      <c r="I37" t="n">
+        <v>148.6471862792969</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>148.6471862792969</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>THERMAX.NS</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>40179</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="E38" t="n">
+        <v>25</v>
+      </c>
+      <c r="F38" t="n">
+        <v>150</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="H38" t="n">
+        <v>26</v>
+      </c>
+      <c r="I38" t="n">
+        <v>150</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>150</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TATAINVEST.NS</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>37622</v>
+      </c>
+      <c r="C39" t="n">
+        <v>28</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>37165</v>
+      </c>
+      <c r="E39" t="n">
+        <v>23</v>
+      </c>
+      <c r="F39" t="n">
+        <v>40</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>37257</v>
+      </c>
+      <c r="H39" t="n">
+        <v>24</v>
+      </c>
+      <c r="I39" t="n">
+        <v>40</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>40</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AEGISCHEM.NS</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="C40" t="n">
+        <v>48</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>41091</v>
+      </c>
+      <c r="E40" t="n">
+        <v>40</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10.125</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="H40" t="n">
+        <v>44</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10.14999961853027</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0.006249904632568359</v>
+      </c>
+      <c r="L40" t="n">
+        <v>9.875003814697266</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>JINDRILL.NS</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>40148</v>
+      </c>
+      <c r="C41" t="n">
+        <v>21</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>39142</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>195</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>39783</v>
+      </c>
+      <c r="H41" t="n">
+        <v>17</v>
+      </c>
+      <c r="I41" t="n">
+        <v>195.25</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="L41" t="n">
+        <v>194.6428571428571</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ZFCVINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="C42" t="n">
+        <v>21</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>38838</v>
+      </c>
+      <c r="E42" t="n">
+        <v>15</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1440</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>39022</v>
+      </c>
+      <c r="H42" t="n">
+        <v>17</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1440</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1440</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SIS.NS</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C43" t="n">
+        <v>26</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="E43" t="n">
+        <v>11</v>
+      </c>
+      <c r="F43" t="n">
+        <v>322.1000061035156</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="H43" t="n">
+        <v>22</v>
+      </c>
+      <c r="I43" t="n">
+        <v>318.9500122070312</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.2863630814985795</v>
+      </c>
+      <c r="L43" t="n">
+        <v>325.25</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>EMAMILTD.NS</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>43405</v>
+      </c>
+      <c r="C44" t="n">
+        <v>49</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="E44" t="n">
+        <v>36</v>
+      </c>
+      <c r="F44" t="n">
+        <v>682.5</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="H44" t="n">
+        <v>45</v>
+      </c>
+      <c r="I44" t="n">
+        <v>682.5</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>682.5</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>GODREJIND.NS</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C45" t="n">
+        <v>82</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="E45" t="n">
+        <v>64</v>
+      </c>
+      <c r="F45" t="n">
+        <v>657.5999755859375</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="H45" t="n">
+        <v>78</v>
+      </c>
+      <c r="I45" t="n">
+        <v>662</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0.3142874581473215</v>
+      </c>
+      <c r="L45" t="n">
+        <v>637.4855782645089</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>GREAVESCOT.NS</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>39753</v>
+      </c>
+      <c r="C46" t="n">
+        <v>25</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>38838</v>
+      </c>
+      <c r="E46" t="n">
+        <v>15</v>
+      </c>
+      <c r="F46" t="n">
+        <v>93.19999694824219</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="H46" t="n">
+        <v>21</v>
+      </c>
+      <c r="I46" t="n">
+        <v>94</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0.1333338419596354</v>
+      </c>
+      <c r="L46" t="n">
+        <v>91.19998931884766</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>RAIN.NS</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>40118</v>
+      </c>
+      <c r="E47" t="n">
+        <v>29</v>
+      </c>
+      <c r="F47" t="n">
+        <v>51.40000152587891</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>41306</v>
+      </c>
+      <c r="H47" t="n">
+        <v>42</v>
+      </c>
+      <c r="I47" t="n">
+        <v>51.34999847412109</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.003846388596754808</v>
+      </c>
+      <c r="L47" t="n">
+        <v>51.5115467951848</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>GOODYEAR.BO</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>37987</v>
+      </c>
+      <c r="C48" t="n">
+        <v>16</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6</v>
+      </c>
+      <c r="F48" t="n">
+        <v>21.29999923706055</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>37622</v>
+      </c>
+      <c r="H48" t="n">
+        <v>12</v>
+      </c>
+      <c r="I48" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.03333314259847005</v>
+      </c>
+      <c r="L48" t="n">
+        <v>21.49999809265137</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PRSMJOHNSN.NS</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C49" t="n">
+        <v>26</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="E49" t="n">
+        <v>21</v>
+      </c>
+      <c r="F49" t="n">
+        <v>79.40000152587891</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="H49" t="n">
+        <v>22</v>
+      </c>
+      <c r="I49" t="n">
+        <v>79.40000152587891</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>79.40000152587891</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>TRIL.BO</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="C50" t="n">
+        <v>41</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>40269</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9</v>
+      </c>
+      <c r="F50" t="n">
+        <v>47.27000045776367</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="H50" t="n">
+        <v>37</v>
+      </c>
+      <c r="I50" t="n">
+        <v>47.59000015258789</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0.01142856052943638</v>
+      </c>
+      <c r="L50" t="n">
+        <v>47.16714341299875</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TV18BRDCST.NS</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="C51" t="n">
+        <v>33</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>41244</v>
+      </c>
+      <c r="E51" t="n">
+        <v>24</v>
+      </c>
+      <c r="F51" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>41699</v>
+      </c>
+      <c r="H51" t="n">
+        <v>29</v>
+      </c>
+      <c r="I51" t="n">
+        <v>38.40000152587891</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.01999969482421875</v>
+      </c>
+      <c r="L51" t="n">
+        <v>38.97999267578125</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>GOODYEAR.BO</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>41365</v>
+      </c>
+      <c r="C52" t="n">
+        <v>53</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>40269</v>
+      </c>
+      <c r="E52" t="n">
+        <v>41</v>
+      </c>
+      <c r="F52" t="n">
+        <v>409.4500122070312</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>41000</v>
+      </c>
+      <c r="H52" t="n">
+        <v>49</v>
+      </c>
+      <c r="I52" t="n">
+        <v>412.7999877929688</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0.4187469482421875</v>
+      </c>
+      <c r="L52" t="n">
+        <v>392.2813873291016</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PRSMJOHNSN.NS</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C53" t="n">
+        <v>82</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="E53" t="n">
+        <v>62</v>
+      </c>
+      <c r="F53" t="n">
+        <v>159.1499938964844</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="H53" t="n">
+        <v>78</v>
+      </c>
+      <c r="I53" t="n">
+        <v>160</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0.05312538146972656</v>
+      </c>
+      <c r="L53" t="n">
+        <v>155.8562202453613</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>EXIDEIND.NS</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C54" t="n">
+        <v>50</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>40817</v>
+      </c>
+      <c r="E54" t="n">
+        <v>37</v>
+      </c>
+      <c r="F54" t="n">
+        <v>98.69999694824219</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>41640</v>
+      </c>
+      <c r="H54" t="n">
+        <v>46</v>
+      </c>
+      <c r="I54" t="n">
+        <v>99</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0.03333367241753472</v>
+      </c>
+      <c r="L54" t="n">
+        <v>97.4666510687934</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HINDZINC.NS</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>41306</v>
+      </c>
+      <c r="C55" t="n">
+        <v>42</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>40575</v>
+      </c>
+      <c r="E55" t="n">
+        <v>34</v>
+      </c>
+      <c r="F55" t="n">
+        <v>155.1999969482422</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>40940</v>
+      </c>
+      <c r="H55" t="n">
+        <v>38</v>
+      </c>
+      <c r="I55" t="n">
+        <v>154</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.2999992370605469</v>
+      </c>
+      <c r="L55" t="n">
+        <v>165.3999710083008</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ASMTEC.BO</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C56" t="n">
+        <v>60</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="E56" t="n">
+        <v>55</v>
+      </c>
+      <c r="F56" t="n">
+        <v>39.28666687011719</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="H56" t="n">
+        <v>56</v>
+      </c>
+      <c r="I56" t="n">
+        <v>39.28666687011719</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>39.28666687011719</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>JYOTISTRUC.NS</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>43466</v>
+      </c>
+      <c r="C57" t="n">
+        <v>92</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="E57" t="n">
+        <v>86</v>
+      </c>
+      <c r="F57" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="H57" t="n">
+        <v>88</v>
+      </c>
+      <c r="I57" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HINDZINC.NS</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C58" t="n">
+        <v>74</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="E58" t="n">
+        <v>52</v>
+      </c>
+      <c r="F58" t="n">
+        <v>117.0500030517578</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="H58" t="n">
+        <v>70</v>
+      </c>
+      <c r="I58" t="n">
+        <v>116.0500030517578</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.05555555555555555</v>
+      </c>
+      <c r="L58" t="n">
+        <v>119.9388919406467</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BHEL.NS</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>37622</v>
+      </c>
+      <c r="C59" t="n">
+        <v>28</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>36892</v>
+      </c>
+      <c r="E59" t="n">
+        <v>20</v>
+      </c>
+      <c r="F59" t="n">
+        <v>13.0600004196167</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>37257</v>
+      </c>
+      <c r="H59" t="n">
+        <v>24</v>
+      </c>
+      <c r="I59" t="n">
+        <v>13.09333324432373</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0.008333206176757812</v>
+      </c>
+      <c r="L59" t="n">
+        <v>12.89333629608154</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>HUDCO.NS</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="C60" t="n">
+        <v>24</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="E60" t="n">
+        <v>19</v>
+      </c>
+      <c r="F60" t="n">
+        <v>30.60000038146973</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="H60" t="n">
+        <v>20</v>
+      </c>
+      <c r="I60" t="n">
+        <v>30.60000038146973</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>30.60000038146973</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>HINDCOPPER.NS</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C61" t="n">
+        <v>29</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="E61" t="n">
+        <v>14</v>
+      </c>
+      <c r="F61" t="n">
+        <v>42.29999923706055</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>42461</v>
+      </c>
+      <c r="H61" t="n">
+        <v>25</v>
+      </c>
+      <c r="I61" t="n">
+        <v>42</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>-0.02727265791459517</v>
+      </c>
+      <c r="L61" t="n">
+        <v>42.68181644786488</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>RECLTD.NS</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C62" t="n">
+        <v>58</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="E62" t="n">
+        <v>45</v>
+      </c>
+      <c r="F62" t="n">
+        <v>127.1624984741211</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="H62" t="n">
+        <v>54</v>
+      </c>
+      <c r="I62" t="n">
+        <v>126.6374969482422</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>-0.05833350287543403</v>
+      </c>
+      <c r="L62" t="n">
+        <v>129.7875061035156</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="C63" t="n">
+        <v>74</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="E63" t="n">
+        <v>54</v>
+      </c>
+      <c r="F63" t="n">
+        <v>201.7924194335938</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="H63" t="n">
+        <v>70</v>
+      </c>
+      <c r="I63" t="n">
+        <v>200</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.1120262145996094</v>
+      </c>
+      <c r="L63" t="n">
+        <v>207.8418350219727</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SAIL.NS</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>43466</v>
+      </c>
+      <c r="C64" t="n">
+        <v>92</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>41275</v>
+      </c>
+      <c r="E64" t="n">
+        <v>68</v>
+      </c>
+      <c r="F64" t="n">
+        <v>101.75</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="H64" t="n">
+        <v>88</v>
+      </c>
+      <c r="I64" t="n">
+        <v>101.4499969482422</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.01500015258789062</v>
+      </c>
+      <c r="L64" t="n">
+        <v>102.7700103759766</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/3mo/two_line_alerts_3mo_backup.xlsx
+++ b/excel/3mo/two_line_alerts_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4135,6 +4135,108 @@
         <v>2</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PEL.NS</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>37803</v>
+      </c>
+      <c r="C73" t="n">
+        <v>30</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="E73" t="n">
+        <v>22</v>
+      </c>
+      <c r="F73" t="n">
+        <v>21.93608474731445</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>37438</v>
+      </c>
+      <c r="H73" t="n">
+        <v>26</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21.79438591003418</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>-0.03542470932006836</v>
+      </c>
+      <c r="L73" t="n">
+        <v>22.71542835235596</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PEL.NS</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="C74" t="n">
+        <v>107</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="E74" t="n">
+        <v>85</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1741.661987304688</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="H74" t="n">
+        <v>103</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1751.69140625</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0.55718994140625</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1694.300842285156</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/3mo/two_line_alerts_3mo_backup.xlsx
+++ b/excel/3mo/two_line_alerts_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4186,6 +4186,108 @@
         <v>2</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PEL.NS</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>37803</v>
+      </c>
+      <c r="C74" t="n">
+        <v>30</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="E74" t="n">
+        <v>22</v>
+      </c>
+      <c r="F74" t="n">
+        <v>21.93608474731445</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>37438</v>
+      </c>
+      <c r="H74" t="n">
+        <v>26</v>
+      </c>
+      <c r="I74" t="n">
+        <v>21.79438591003418</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>-0.03542470932006836</v>
+      </c>
+      <c r="L74" t="n">
+        <v>22.71542835235596</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PEL.NS</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="C75" t="n">
+        <v>107</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="E75" t="n">
+        <v>85</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1741.661987304688</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="H75" t="n">
+        <v>103</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1751.69140625</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0.55718994140625</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1694.300842285156</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/3mo/two_line_alerts_3mo_backup.xlsx
+++ b/excel/3mo/two_line_alerts_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4288,6 +4288,567 @@
         <v>2</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CRANEINFRA.BO</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="C76" t="n">
+        <v>16</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10</v>
+      </c>
+      <c r="F76" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>43132</v>
+      </c>
+      <c r="H76" t="n">
+        <v>12</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>42036</v>
+      </c>
+      <c r="C77" t="n">
+        <v>50</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>41579</v>
+      </c>
+      <c r="E77" t="n">
+        <v>45</v>
+      </c>
+      <c r="F77" t="n">
+        <v>71</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="H77" t="n">
+        <v>46</v>
+      </c>
+      <c r="I77" t="n">
+        <v>71</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>71</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ANDHRAPAP.NS</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C78" t="n">
+        <v>82</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="E78" t="n">
+        <v>74</v>
+      </c>
+      <c r="F78" t="n">
+        <v>394</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="H78" t="n">
+        <v>78</v>
+      </c>
+      <c r="I78" t="n">
+        <v>391.1000061035156</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>-0.7249984741210938</v>
+      </c>
+      <c r="L78" t="n">
+        <v>447.6498870849609</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>TANFACIND.BO</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>38504</v>
+      </c>
+      <c r="C79" t="n">
+        <v>14</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>38047</v>
+      </c>
+      <c r="E79" t="n">
+        <v>9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>16</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>38139</v>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+      <c r="I79" t="n">
+        <v>16</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>16</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ADFFOODS.NS</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="C80" t="n">
+        <v>10</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>40787</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4</v>
+      </c>
+      <c r="F80" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>40969</v>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+      <c r="I80" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C81" t="n">
+        <v>44</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>39995</v>
+      </c>
+      <c r="E81" t="n">
+        <v>28</v>
+      </c>
+      <c r="F81" t="n">
+        <v>31.97999954223633</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>41091</v>
+      </c>
+      <c r="H81" t="n">
+        <v>40</v>
+      </c>
+      <c r="I81" t="n">
+        <v>32.15999984741211</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>0.0150000254313151</v>
+      </c>
+      <c r="L81" t="n">
+        <v>31.5599988301595</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>COROMANDEL.NS</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>44044</v>
+      </c>
+      <c r="C82" t="n">
+        <v>72</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>43313</v>
+      </c>
+      <c r="E82" t="n">
+        <v>64</v>
+      </c>
+      <c r="F82" t="n">
+        <v>339.1000061035156</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>43678</v>
+      </c>
+      <c r="H82" t="n">
+        <v>68</v>
+      </c>
+      <c r="I82" t="n">
+        <v>336.6000061035156</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="L82" t="n">
+        <v>379.1000061035156</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="C83" t="n">
+        <v>52</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>41091</v>
+      </c>
+      <c r="E83" t="n">
+        <v>40</v>
+      </c>
+      <c r="F83" t="n">
+        <v>32.15999984741211</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="H83" t="n">
+        <v>48</v>
+      </c>
+      <c r="I83" t="n">
+        <v>31.85000038146973</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>-0.03874993324279785</v>
+      </c>
+      <c r="L83" t="n">
+        <v>33.70999717712402</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C84" t="n">
+        <v>56</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>41640</v>
+      </c>
+      <c r="E84" t="n">
+        <v>46</v>
+      </c>
+      <c r="F84" t="n">
+        <v>17.29999923706055</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="H84" t="n">
+        <v>52</v>
+      </c>
+      <c r="I84" t="n">
+        <v>17.23999977111816</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>-0.009999910990397135</v>
+      </c>
+      <c r="L84" t="n">
+        <v>17.75999514261882</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>GRAVITA.NS</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="C85" t="n">
+        <v>33</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="E85" t="n">
+        <v>6</v>
+      </c>
+      <c r="F85" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>43132</v>
+      </c>
+      <c r="H85" t="n">
+        <v>29</v>
+      </c>
+      <c r="I85" t="n">
+        <v>204.8999938964844</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>0.01739103897758152</v>
+      </c>
+      <c r="L85" t="n">
+        <v>204.3956537661345</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>INDIAGLYCO.NS</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>42036</v>
+      </c>
+      <c r="C86" t="n">
+        <v>50</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>41579</v>
+      </c>
+      <c r="E86" t="n">
+        <v>45</v>
+      </c>
+      <c r="F86" t="n">
+        <v>84.19999694824219</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="H86" t="n">
+        <v>46</v>
+      </c>
+      <c r="I86" t="n">
+        <v>84.19999694824219</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>84.19999694824219</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/3mo/two_line_alerts_3mo_backup.xlsx
+++ b/excel/3mo/two_line_alerts_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4849,6 +4849,57 @@
         <v>2</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>40817</v>
+      </c>
+      <c r="C87" t="n">
+        <v>57</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="E87" t="n">
+        <v>42</v>
+      </c>
+      <c r="F87" t="n">
+        <v>21206.76953125</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="H87" t="n">
+        <v>53</v>
+      </c>
+      <c r="I87" t="n">
+        <v>21108.640625</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>-8.920809659090908</v>
+      </c>
+      <c r="L87" t="n">
+        <v>21581.44353693182</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/3mo/two_line_alerts_3mo_backup.xlsx
+++ b/excel/3mo/two_line_alerts_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4900,6 +4900,159 @@
         <v>2</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ASIANPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="C88" t="n">
+        <v>88</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E88" t="n">
+        <v>78</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3590</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="H88" t="n">
+        <v>84</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3568</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>-3.666666666666667</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3876</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="C89" t="n">
+        <v>114</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E89" t="n">
+        <v>106</v>
+      </c>
+      <c r="F89" t="n">
+        <v>206</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="H89" t="n">
+        <v>110</v>
+      </c>
+      <c r="I89" t="n">
+        <v>208</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L89" t="n">
+        <v>153</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PETRONET.NS</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="C90" t="n">
+        <v>82</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="E90" t="n">
+        <v>71</v>
+      </c>
+      <c r="F90" t="n">
+        <v>190.25</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="H90" t="n">
+        <v>78</v>
+      </c>
+      <c r="I90" t="n">
+        <v>191.6999969482422</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>0.2071424211774553</v>
+      </c>
+      <c r="L90" t="n">
+        <v>175.5428880964007</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
